--- a/qa-0854x.xlsx
+++ b/qa-0854x.xlsx
@@ -138,10 +138,10 @@
     <definedName name="RiskUseFixedSeed" hidden="1">FALSE</definedName>
     <definedName name="RiskUseMultipleCPUs" hidden="1">TRUE</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <pivotCaches>
-    <pivotCache cacheId="2" r:id="rId12"/>
-    <pivotCache cacheId="3" r:id="rId13"/>
+    <pivotCache cacheId="0" r:id="rId12"/>
+    <pivotCache cacheId="1" r:id="rId13"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -158,7 +158,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="115">
   <si>
     <t>LEC ID</t>
   </si>
@@ -546,6 +546,14 @@
   <si>
     <t>Predicted Sum of Units Sold</t>
   </si>
+  <si>
+    <t>weekday</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>already determined</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -772,7 +780,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -964,6 +972,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="12">
     <border>
@@ -1148,7 +1168,7 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="42"/>
@@ -1199,6 +1219,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="45">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1247,7 +1269,7 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="14">
+  <dxfs count="12">
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -1283,12 +1305,6 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="176" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="178" formatCode="yyyy/mm/dd"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2396,11 +2412,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="408667400"/>
-        <c:axId val="408667792"/>
+        <c:axId val="554645744"/>
+        <c:axId val="554643392"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="408667400"/>
+        <c:axId val="554645744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2442,7 +2458,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="408667792"/>
+        <c:crossAx val="554643392"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2450,7 +2466,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="408667792"/>
+        <c:axId val="554643392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2501,7 +2517,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="408667400"/>
+        <c:crossAx val="554645744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3033,11 +3049,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="607048816"/>
-        <c:axId val="607051560"/>
+        <c:axId val="556224416"/>
+        <c:axId val="556224808"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="607048816"/>
+        <c:axId val="556224416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3065,12 +3081,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="607051560"/>
+        <c:crossAx val="556224808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="607051560"/>
+        <c:axId val="556224808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3098,7 +3114,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="607048816"/>
+        <c:crossAx val="556224416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4845,11 +4861,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="408668576"/>
-        <c:axId val="408668968"/>
+        <c:axId val="543937904"/>
+        <c:axId val="557831016"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="408668576"/>
+        <c:axId val="543937904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4891,7 +4907,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="408668968"/>
+        <c:crossAx val="557831016"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4899,7 +4915,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="408668968"/>
+        <c:axId val="557831016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4950,7 +4966,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="408668576"/>
+        <c:crossAx val="543937904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5455,11 +5471,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="603993304"/>
-        <c:axId val="603992520"/>
+        <c:axId val="557832584"/>
+        <c:axId val="557830624"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="603993304"/>
+        <c:axId val="557832584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5487,7 +5503,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="603992520"/>
+        <c:crossAx val="557830624"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5495,7 +5511,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="603992520"/>
+        <c:axId val="557830624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5524,7 +5540,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="603993304"/>
+        <c:crossAx val="557832584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5986,11 +6002,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="603995264"/>
-        <c:axId val="603992912"/>
+        <c:axId val="557832976"/>
+        <c:axId val="557829056"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="603995264"/>
+        <c:axId val="557832976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6018,7 +6034,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="603992912"/>
+        <c:crossAx val="557829056"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6026,7 +6042,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="603992912"/>
+        <c:axId val="557829056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6055,7 +6071,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="603995264"/>
+        <c:crossAx val="557832976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6316,11 +6332,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="608901656"/>
-        <c:axId val="608899696"/>
+        <c:axId val="557833368"/>
+        <c:axId val="557833760"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="608901656"/>
+        <c:axId val="557833368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6348,12 +6364,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="608899696"/>
+        <c:crossAx val="557833760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="608899696"/>
+        <c:axId val="557833760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6381,7 +6397,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="608901656"/>
+        <c:crossAx val="557833368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7741,11 +7757,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="608902440"/>
-        <c:axId val="608902048"/>
+        <c:axId val="557831800"/>
+        <c:axId val="557832192"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="608902440"/>
+        <c:axId val="557831800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7773,12 +7789,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="608902048"/>
+        <c:crossAx val="557832192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="608902048"/>
+        <c:axId val="557832192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7806,7 +7822,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="608902440"/>
+        <c:crossAx val="557831800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9166,11 +9182,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="608898912"/>
-        <c:axId val="608899304"/>
+        <c:axId val="557828664"/>
+        <c:axId val="556223240"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="608898912"/>
+        <c:axId val="557828664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9198,12 +9214,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="608899304"/>
+        <c:crossAx val="556223240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="608899304"/>
+        <c:axId val="556223240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9231,7 +9247,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="608898912"/>
+        <c:crossAx val="557828664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9700,11 +9716,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="608901264"/>
-        <c:axId val="607049600"/>
+        <c:axId val="556225984"/>
+        <c:axId val="556222456"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="608901264"/>
+        <c:axId val="556225984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9732,12 +9748,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="607049600"/>
+        <c:crossAx val="556222456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="607049600"/>
+        <c:axId val="556222456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9765,7 +9781,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="608901264"/>
+        <c:crossAx val="556225984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -10639,11 +10655,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="607049992"/>
-        <c:axId val="607050776"/>
+        <c:axId val="556222848"/>
+        <c:axId val="556221672"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="607049992"/>
+        <c:axId val="556222848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10671,12 +10687,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="607050776"/>
+        <c:crossAx val="556221672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="607050776"/>
+        <c:axId val="556221672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10704,7 +10720,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="607049992"/>
+        <c:crossAx val="556222848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -11864,7 +11880,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11919,7 +11935,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{01C80D67-F408-481B-886E-B5A03FB260FC}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01C80D67-F408-481B-886E-B5A03FB260FC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11960,7 +11976,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BBD841C8-12BF-4A28-B0B6-43729C62F4DD}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BBD841C8-12BF-4A28-B0B6-43729C62F4DD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12001,7 +12017,7 @@
         <xdr:cNvPr id="7" name="Chart 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8E6E3EE7-EE6F-47C2-BAFF-AAEFE95E5D19}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E6E3EE7-EE6F-47C2-BAFF-AAEFE95E5D19}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12037,7 +12053,7 @@
         <xdr:cNvPr id="8" name="Chart 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A5316D85-DF71-4EB8-A1E8-535ADB5F518D}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5316D85-DF71-4EB8-A1E8-535ADB5F518D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12073,7 +12089,7 @@
         <xdr:cNvPr id="9" name="Chart 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{651125F3-D697-40C9-84AB-9D46FE320F3E}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{651125F3-D697-40C9-84AB-9D46FE320F3E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12114,7 +12130,7 @@
         <xdr:cNvPr id="5" name="Chart 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{07838929-E2BF-489C-B175-3C6D48A55851}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07838929-E2BF-489C-B175-3C6D48A55851}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12150,7 +12166,7 @@
         <xdr:cNvPr id="15" name="Chart 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5FD37DF4-CAAB-4BC1-A8AB-01D5D231B3AA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5FD37DF4-CAAB-4BC1-A8AB-01D5D231B3AA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12186,7 +12202,7 @@
         <xdr:cNvPr id="43" name="Chart 42">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DFDD1483-83C5-43BF-BE25-52670F20ECA7}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DFDD1483-83C5-43BF-BE25-52670F20ECA7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12222,7 +12238,7 @@
         <xdr:cNvPr id="44" name="Chart 43">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8232AF4D-192F-4842-A5A9-40849C6287CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8232AF4D-192F-4842-A5A9-40849C6287CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12258,7 +12274,7 @@
         <xdr:cNvPr id="45" name="Chart 44">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CE11BE28-BE7A-4CD4-9AA5-FAF313473197}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE11BE28-BE7A-4CD4-9AA5-FAF313473197}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12282,7 +12298,7 @@
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Jan TIan" refreshedDate="44141.914211921299" createdVersion="5" refreshedVersion="6" minRefreshableVersion="3" recordCount="418">
   <cacheSource type="worksheet">
-    <worksheetSource name="Table1"/>
+    <worksheetSource ref="C7:F425" sheet="TV Daily Sales Data" r:id="rId2"/>
   </cacheSource>
   <cacheFields count="6">
     <cacheField name="Date" numFmtId="14">
@@ -19715,7 +19731,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0">
   <location ref="F9:I47" firstHeaderRow="2" firstDataRow="2" firstDataCol="3"/>
   <pivotFields count="6">
     <pivotField axis="axisRow" compact="0" numFmtId="14" outline="0" showAll="0" defaultSubtotal="0">
@@ -19960,7 +19976,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A4:C28" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField numFmtId="14" showAll="0">
@@ -20176,7 +20192,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable4" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable4" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0">
   <location ref="A3:C66" firstHeaderRow="2" firstDataRow="2" firstDataCol="2" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="6">
     <pivotField compact="0" numFmtId="14" outline="0" showAll="0"/>
@@ -20492,7 +20508,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable6" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable6" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0">
   <location ref="A4:G12" firstHeaderRow="2" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="9">
     <pivotField axis="axisRow" compact="0" numFmtId="14" outline="0" showAll="0">
@@ -20627,7 +20643,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable7" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0" chartFormat="6">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable7" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0" chartFormat="6">
   <location ref="A3:C28" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="9">
     <pivotField compact="0" numFmtId="14" outline="0" showAll="0"/>
@@ -20810,7 +20826,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable5" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0" chartFormat="6">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable5" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0" chartFormat="6">
   <location ref="U7:X70" firstHeaderRow="2" firstDataRow="2" firstDataCol="3"/>
   <pivotFields count="9">
     <pivotField compact="0" numFmtId="14" outline="0" showAll="0">
@@ -21206,24 +21222,6 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="C7:F425" totalsRowShown="0">
-  <autoFilter ref="C7:F425"/>
-  <sortState ref="C8:E425">
-    <sortCondition ref="C7:C425"/>
-  </sortState>
-  <tableColumns count="4">
-    <tableColumn id="1" name="Date" dataDxfId="13"/>
-    <tableColumn id="2" name="LEC ID"/>
-    <tableColumn id="3" name="Units Sold"/>
-    <tableColumn id="4" name="week number" dataDxfId="12">
-      <calculatedColumnFormula>WEEKNUM(Table1[[#This Row],[Date]],2)</calculatedColumnFormula>
-    </tableColumn>
-  </tableColumns>
-  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:E66" totalsRowShown="0">
   <autoFilter ref="A1:E66"/>
   <tableColumns count="5">
@@ -21243,7 +21241,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="G1:H8" totalsRowShown="0">
   <autoFilter ref="G1:H8"/>
   <tableColumns count="2">
@@ -21254,7 +21252,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="A1:E104" totalsRowShown="0">
   <autoFilter ref="A1:E104"/>
   <tableColumns count="5">
@@ -21274,7 +21272,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table6" displayName="Table6" ref="G1:H8" totalsRowShown="0">
   <autoFilter ref="G1:H8"/>
   <tableColumns count="2">
@@ -21285,7 +21283,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table18" displayName="Table18" ref="C7:I425" totalsRowShown="0">
   <autoFilter ref="C7:I425"/>
   <sortState ref="C8:E425">
@@ -41254,10 +41252,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:G427"/>
+  <dimension ref="A2:G475"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="A424" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H426" sqref="H426"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -41329,7 +41327,7 @@
         <v>40</v>
       </c>
       <c r="F8">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C8,2)</f>
         <v>2</v>
       </c>
     </row>
@@ -41344,7 +41342,7 @@
         <v>5</v>
       </c>
       <c r="F9">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C9,2)</f>
         <v>2</v>
       </c>
     </row>
@@ -41359,7 +41357,7 @@
         <v>14</v>
       </c>
       <c r="F10">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C10,2)</f>
         <v>2</v>
       </c>
     </row>
@@ -41374,7 +41372,7 @@
         <v>8</v>
       </c>
       <c r="F11">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C11,2)</f>
         <v>2</v>
       </c>
     </row>
@@ -41389,7 +41387,7 @@
         <v>4</v>
       </c>
       <c r="F12">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C12,2)</f>
         <v>2</v>
       </c>
     </row>
@@ -41404,7 +41402,7 @@
         <v>13</v>
       </c>
       <c r="F13">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C13,2)</f>
         <v>2</v>
       </c>
     </row>
@@ -41419,7 +41417,7 @@
         <v>9</v>
       </c>
       <c r="F14">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C14,2)</f>
         <v>3</v>
       </c>
     </row>
@@ -41434,7 +41432,7 @@
         <v>8</v>
       </c>
       <c r="F15">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C15,2)</f>
         <v>3</v>
       </c>
     </row>
@@ -41449,7 +41447,7 @@
         <v>5</v>
       </c>
       <c r="F16">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C16,2)</f>
         <v>3</v>
       </c>
     </row>
@@ -41464,7 +41462,7 @@
         <v>5</v>
       </c>
       <c r="F17">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C17,2)</f>
         <v>3</v>
       </c>
     </row>
@@ -41479,7 +41477,7 @@
         <v>3</v>
       </c>
       <c r="F18">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C18,2)</f>
         <v>3</v>
       </c>
     </row>
@@ -41494,7 +41492,7 @@
         <v>1</v>
       </c>
       <c r="F19">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C19,2)</f>
         <v>3</v>
       </c>
     </row>
@@ -41509,7 +41507,7 @@
         <v>7</v>
       </c>
       <c r="F20">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C20,2)</f>
         <v>3</v>
       </c>
     </row>
@@ -41524,7 +41522,7 @@
         <v>13</v>
       </c>
       <c r="F21">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C21,2)</f>
         <v>4</v>
       </c>
     </row>
@@ -41539,7 +41537,7 @@
         <v>10</v>
       </c>
       <c r="F22">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C22,2)</f>
         <v>4</v>
       </c>
     </row>
@@ -41554,7 +41552,7 @@
         <v>9</v>
       </c>
       <c r="F23">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C23,2)</f>
         <v>4</v>
       </c>
     </row>
@@ -41569,7 +41567,7 @@
         <v>7</v>
       </c>
       <c r="F24">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C24,2)</f>
         <v>4</v>
       </c>
     </row>
@@ -41584,7 +41582,7 @@
         <v>2</v>
       </c>
       <c r="F25">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C25,2)</f>
         <v>4</v>
       </c>
     </row>
@@ -41599,7 +41597,7 @@
         <v>3</v>
       </c>
       <c r="F26">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C26,2)</f>
         <v>4</v>
       </c>
     </row>
@@ -41614,7 +41612,7 @@
         <v>3</v>
       </c>
       <c r="F27">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C27,2)</f>
         <v>4</v>
       </c>
     </row>
@@ -41629,7 +41627,7 @@
         <v>4</v>
       </c>
       <c r="F28">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C28,2)</f>
         <v>5</v>
       </c>
     </row>
@@ -41644,7 +41642,7 @@
         <v>32</v>
       </c>
       <c r="F29">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C29,2)</f>
         <v>5</v>
       </c>
     </row>
@@ -41659,7 +41657,7 @@
         <v>11</v>
       </c>
       <c r="F30">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C30,2)</f>
         <v>5</v>
       </c>
     </row>
@@ -41674,7 +41672,7 @@
         <v>3</v>
       </c>
       <c r="F31">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C31,2)</f>
         <v>5</v>
       </c>
     </row>
@@ -41689,7 +41687,7 @@
         <v>15</v>
       </c>
       <c r="F32">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C32,2)</f>
         <v>5</v>
       </c>
     </row>
@@ -41704,7 +41702,7 @@
         <v>14</v>
       </c>
       <c r="F33">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C33,2)</f>
         <v>5</v>
       </c>
     </row>
@@ -41719,7 +41717,7 @@
         <v>17</v>
       </c>
       <c r="F34">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C34,2)</f>
         <v>5</v>
       </c>
     </row>
@@ -41734,7 +41732,7 @@
         <v>16</v>
       </c>
       <c r="F35">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C35,2)</f>
         <v>6</v>
       </c>
     </row>
@@ -41749,7 +41747,7 @@
         <v>8</v>
       </c>
       <c r="F36">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C36,2)</f>
         <v>6</v>
       </c>
     </row>
@@ -41764,7 +41762,7 @@
         <v>9</v>
       </c>
       <c r="F37">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C37,2)</f>
         <v>6</v>
       </c>
     </row>
@@ -41779,7 +41777,7 @@
         <v>10</v>
       </c>
       <c r="F38">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C38,2)</f>
         <v>6</v>
       </c>
     </row>
@@ -41794,7 +41792,7 @@
         <v>8</v>
       </c>
       <c r="F39">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C39,2)</f>
         <v>6</v>
       </c>
     </row>
@@ -41809,7 +41807,7 @@
         <v>3</v>
       </c>
       <c r="F40">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C40,2)</f>
         <v>6</v>
       </c>
     </row>
@@ -41824,7 +41822,7 @@
         <v>3</v>
       </c>
       <c r="F41">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C41,2)</f>
         <v>6</v>
       </c>
     </row>
@@ -41839,7 +41837,7 @@
         <v>5</v>
       </c>
       <c r="F42">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C42,2)</f>
         <v>7</v>
       </c>
     </row>
@@ -41854,7 +41852,7 @@
         <v>15</v>
       </c>
       <c r="F43">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C43,2)</f>
         <v>7</v>
       </c>
     </row>
@@ -41869,7 +41867,7 @@
         <v>8</v>
       </c>
       <c r="F44">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C44,2)</f>
         <v>7</v>
       </c>
     </row>
@@ -41884,7 +41882,7 @@
         <v>3</v>
       </c>
       <c r="F45">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C45,2)</f>
         <v>7</v>
       </c>
     </row>
@@ -41899,7 +41897,7 @@
         <v>2</v>
       </c>
       <c r="F46">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C46,2)</f>
         <v>7</v>
       </c>
     </row>
@@ -41914,7 +41912,7 @@
         <v>5</v>
       </c>
       <c r="F47">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C47,2)</f>
         <v>7</v>
       </c>
     </row>
@@ -41929,7 +41927,7 @@
         <v>9</v>
       </c>
       <c r="F48">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C48,2)</f>
         <v>8</v>
       </c>
     </row>
@@ -41944,7 +41942,7 @@
         <v>42</v>
       </c>
       <c r="F49">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C49,2)</f>
         <v>8</v>
       </c>
     </row>
@@ -41959,7 +41957,7 @@
         <v>20</v>
       </c>
       <c r="F50">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C50,2)</f>
         <v>8</v>
       </c>
     </row>
@@ -41974,7 +41972,7 @@
         <v>25</v>
       </c>
       <c r="F51">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C51,2)</f>
         <v>8</v>
       </c>
     </row>
@@ -41989,7 +41987,7 @@
         <v>23</v>
       </c>
       <c r="F52">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C52,2)</f>
         <v>8</v>
       </c>
     </row>
@@ -42004,7 +42002,7 @@
         <v>22</v>
       </c>
       <c r="F53">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C53,2)</f>
         <v>8</v>
       </c>
     </row>
@@ -42019,7 +42017,7 @@
         <v>18</v>
       </c>
       <c r="F54">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C54,2)</f>
         <v>8</v>
       </c>
     </row>
@@ -42034,7 +42032,7 @@
         <v>5</v>
       </c>
       <c r="F55">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C55,2)</f>
         <v>9</v>
       </c>
     </row>
@@ -42049,7 +42047,7 @@
         <v>9</v>
       </c>
       <c r="F56">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C56,2)</f>
         <v>9</v>
       </c>
     </row>
@@ -42064,7 +42062,7 @@
         <v>3</v>
       </c>
       <c r="F57">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C57,2)</f>
         <v>9</v>
       </c>
     </row>
@@ -42079,7 +42077,7 @@
         <v>15</v>
       </c>
       <c r="F58">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C58,2)</f>
         <v>9</v>
       </c>
     </row>
@@ -42094,7 +42092,7 @@
         <v>6</v>
       </c>
       <c r="F59">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C59,2)</f>
         <v>9</v>
       </c>
     </row>
@@ -42109,7 +42107,7 @@
         <v>3</v>
       </c>
       <c r="F60">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C60,2)</f>
         <v>9</v>
       </c>
     </row>
@@ -42124,7 +42122,7 @@
         <v>4</v>
       </c>
       <c r="F61">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C61,2)</f>
         <v>9</v>
       </c>
     </row>
@@ -42139,7 +42137,7 @@
         <v>7</v>
       </c>
       <c r="F62">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C62,2)</f>
         <v>10</v>
       </c>
     </row>
@@ -42154,7 +42152,7 @@
         <v>35</v>
       </c>
       <c r="F63">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C63,2)</f>
         <v>10</v>
       </c>
     </row>
@@ -42169,7 +42167,7 @@
         <v>12</v>
       </c>
       <c r="F64">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C64,2)</f>
         <v>10</v>
       </c>
     </row>
@@ -42184,7 +42182,7 @@
         <v>19</v>
       </c>
       <c r="F65">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C65,2)</f>
         <v>10</v>
       </c>
     </row>
@@ -42199,7 +42197,7 @@
         <v>18</v>
       </c>
       <c r="F66">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C66,2)</f>
         <v>10</v>
       </c>
     </row>
@@ -42214,7 +42212,7 @@
         <v>6</v>
       </c>
       <c r="F67">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C67,2)</f>
         <v>10</v>
       </c>
     </row>
@@ -42229,7 +42227,7 @@
         <v>6</v>
       </c>
       <c r="F68">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C68,2)</f>
         <v>10</v>
       </c>
     </row>
@@ -42244,7 +42242,7 @@
         <v>3</v>
       </c>
       <c r="F69">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C69,2)</f>
         <v>11</v>
       </c>
     </row>
@@ -42259,7 +42257,7 @@
         <v>10</v>
       </c>
       <c r="F70">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C70,2)</f>
         <v>11</v>
       </c>
     </row>
@@ -42274,7 +42272,7 @@
         <v>9</v>
       </c>
       <c r="F71">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C71,2)</f>
         <v>11</v>
       </c>
     </row>
@@ -42289,7 +42287,7 @@
         <v>36</v>
       </c>
       <c r="F72">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C72,2)</f>
         <v>11</v>
       </c>
     </row>
@@ -42304,7 +42302,7 @@
         <v>16</v>
       </c>
       <c r="F73">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C73,2)</f>
         <v>11</v>
       </c>
     </row>
@@ -42319,7 +42317,7 @@
         <v>5</v>
       </c>
       <c r="F74">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C74,2)</f>
         <v>11</v>
       </c>
     </row>
@@ -42334,7 +42332,7 @@
         <v>14</v>
       </c>
       <c r="F75">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C75,2)</f>
         <v>11</v>
       </c>
     </row>
@@ -42349,7 +42347,7 @@
         <v>14</v>
       </c>
       <c r="F76">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C76,2)</f>
         <v>12</v>
       </c>
     </row>
@@ -42364,7 +42362,7 @@
         <v>58</v>
       </c>
       <c r="F77">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C77,2)</f>
         <v>12</v>
       </c>
     </row>
@@ -42379,7 +42377,7 @@
         <v>30</v>
       </c>
       <c r="F78">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C78,2)</f>
         <v>12</v>
       </c>
     </row>
@@ -42394,7 +42392,7 @@
         <v>24</v>
       </c>
       <c r="F79">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C79,2)</f>
         <v>12</v>
       </c>
     </row>
@@ -42409,7 +42407,7 @@
         <v>30</v>
       </c>
       <c r="F80">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C80,2)</f>
         <v>12</v>
       </c>
     </row>
@@ -42424,7 +42422,7 @@
         <v>18</v>
       </c>
       <c r="F81">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C81,2)</f>
         <v>12</v>
       </c>
     </row>
@@ -42439,7 +42437,7 @@
         <v>27</v>
       </c>
       <c r="F82">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C82,2)</f>
         <v>12</v>
       </c>
     </row>
@@ -42454,7 +42452,7 @@
         <v>21</v>
       </c>
       <c r="F83">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C83,2)</f>
         <v>13</v>
       </c>
     </row>
@@ -42469,7 +42467,7 @@
         <v>20</v>
       </c>
       <c r="F84">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C84,2)</f>
         <v>13</v>
       </c>
     </row>
@@ -42484,7 +42482,7 @@
         <v>23</v>
       </c>
       <c r="F85">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C85,2)</f>
         <v>13</v>
       </c>
     </row>
@@ -42499,7 +42497,7 @@
         <v>15</v>
       </c>
       <c r="F86">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C86,2)</f>
         <v>13</v>
       </c>
     </row>
@@ -42514,7 +42512,7 @@
         <v>14</v>
       </c>
       <c r="F87">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C87,2)</f>
         <v>13</v>
       </c>
     </row>
@@ -42529,7 +42527,7 @@
         <v>6</v>
       </c>
       <c r="F88">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C88,2)</f>
         <v>13</v>
       </c>
     </row>
@@ -42544,7 +42542,7 @@
         <v>5</v>
       </c>
       <c r="F89">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C89,2)</f>
         <v>13</v>
       </c>
     </row>
@@ -42559,7 +42557,7 @@
         <v>14</v>
       </c>
       <c r="F90">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C90,2)</f>
         <v>14</v>
       </c>
     </row>
@@ -42574,7 +42572,7 @@
         <v>44</v>
       </c>
       <c r="F91">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C91,2)</f>
         <v>14</v>
       </c>
     </row>
@@ -42589,7 +42587,7 @@
         <v>12</v>
       </c>
       <c r="F92">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C92,2)</f>
         <v>14</v>
       </c>
     </row>
@@ -42604,7 +42602,7 @@
         <v>17</v>
       </c>
       <c r="F93">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C93,2)</f>
         <v>14</v>
       </c>
     </row>
@@ -42619,7 +42617,7 @@
         <v>4</v>
       </c>
       <c r="F94">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C94,2)</f>
         <v>14</v>
       </c>
     </row>
@@ -42634,7 +42632,7 @@
         <v>1</v>
       </c>
       <c r="F95">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C95,2)</f>
         <v>14</v>
       </c>
     </row>
@@ -42649,7 +42647,7 @@
         <v>11</v>
       </c>
       <c r="F96">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C96,2)</f>
         <v>14</v>
       </c>
     </row>
@@ -42664,7 +42662,7 @@
         <v>11</v>
       </c>
       <c r="F97">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C97,2)</f>
         <v>15</v>
       </c>
     </row>
@@ -42679,7 +42677,7 @@
         <v>16</v>
       </c>
       <c r="F98">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C98,2)</f>
         <v>15</v>
       </c>
     </row>
@@ -42694,7 +42692,7 @@
         <v>10</v>
       </c>
       <c r="F99">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C99,2)</f>
         <v>15</v>
       </c>
     </row>
@@ -42709,7 +42707,7 @@
         <v>7</v>
       </c>
       <c r="F100">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C100,2)</f>
         <v>15</v>
       </c>
     </row>
@@ -42724,7 +42722,7 @@
         <v>13</v>
       </c>
       <c r="F101">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C101,2)</f>
         <v>15</v>
       </c>
     </row>
@@ -42739,7 +42737,7 @@
         <v>4</v>
       </c>
       <c r="F102">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C102,2)</f>
         <v>15</v>
       </c>
     </row>
@@ -42754,7 +42752,7 @@
         <v>6</v>
       </c>
       <c r="F103">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C103,2)</f>
         <v>15</v>
       </c>
     </row>
@@ -42769,7 +42767,7 @@
         <v>17</v>
       </c>
       <c r="F104">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C104,2)</f>
         <v>16</v>
       </c>
     </row>
@@ -42784,7 +42782,7 @@
         <v>62</v>
       </c>
       <c r="F105">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C105,2)</f>
         <v>16</v>
       </c>
     </row>
@@ -42799,7 +42797,7 @@
         <v>31</v>
       </c>
       <c r="F106">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C106,2)</f>
         <v>16</v>
       </c>
     </row>
@@ -42814,7 +42812,7 @@
         <v>19</v>
       </c>
       <c r="F107">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C107,2)</f>
         <v>16</v>
       </c>
     </row>
@@ -42829,7 +42827,7 @@
         <v>11</v>
       </c>
       <c r="F108">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C108,2)</f>
         <v>16</v>
       </c>
     </row>
@@ -42844,7 +42842,7 @@
         <v>3</v>
       </c>
       <c r="F109">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C109,2)</f>
         <v>16</v>
       </c>
     </row>
@@ -42859,7 +42857,7 @@
         <v>20</v>
       </c>
       <c r="F110">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C110,2)</f>
         <v>16</v>
       </c>
     </row>
@@ -42874,7 +42872,7 @@
         <v>18</v>
       </c>
       <c r="F111">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C111,2)</f>
         <v>17</v>
       </c>
     </row>
@@ -42889,7 +42887,7 @@
         <v>18</v>
       </c>
       <c r="F112">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C112,2)</f>
         <v>17</v>
       </c>
     </row>
@@ -42904,7 +42902,7 @@
         <v>13</v>
       </c>
       <c r="F113">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C113,2)</f>
         <v>17</v>
       </c>
     </row>
@@ -42919,7 +42917,7 @@
         <v>19</v>
       </c>
       <c r="F114">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C114,2)</f>
         <v>17</v>
       </c>
     </row>
@@ -42934,7 +42932,7 @@
         <v>3</v>
       </c>
       <c r="F115">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C115,2)</f>
         <v>17</v>
       </c>
     </row>
@@ -42949,7 +42947,7 @@
         <v>7</v>
       </c>
       <c r="F116">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C116,2)</f>
         <v>17</v>
       </c>
     </row>
@@ -42964,7 +42962,7 @@
         <v>4</v>
       </c>
       <c r="F117">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C117,2)</f>
         <v>17</v>
       </c>
     </row>
@@ -42979,7 +42977,7 @@
         <v>7</v>
       </c>
       <c r="F118">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C118,2)</f>
         <v>18</v>
       </c>
     </row>
@@ -42994,7 +42992,7 @@
         <v>104</v>
       </c>
       <c r="F119">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C119,2)</f>
         <v>18</v>
       </c>
     </row>
@@ -43009,7 +43007,7 @@
         <v>57</v>
       </c>
       <c r="F120">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C120,2)</f>
         <v>18</v>
       </c>
     </row>
@@ -43024,7 +43022,7 @@
         <v>33</v>
       </c>
       <c r="F121">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C121,2)</f>
         <v>18</v>
       </c>
     </row>
@@ -43039,7 +43037,7 @@
         <v>11</v>
       </c>
       <c r="F122">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C122,2)</f>
         <v>18</v>
       </c>
     </row>
@@ -43054,7 +43052,7 @@
         <v>8</v>
       </c>
       <c r="F123">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C123,2)</f>
         <v>18</v>
       </c>
     </row>
@@ -43069,7 +43067,7 @@
         <v>34</v>
       </c>
       <c r="F124">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C124,2)</f>
         <v>18</v>
       </c>
     </row>
@@ -43084,7 +43082,7 @@
         <v>25</v>
       </c>
       <c r="F125">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C125,2)</f>
         <v>19</v>
       </c>
     </row>
@@ -43099,7 +43097,7 @@
         <v>83</v>
       </c>
       <c r="F126">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C126,2)</f>
         <v>19</v>
       </c>
     </row>
@@ -43114,7 +43112,7 @@
         <v>10</v>
       </c>
       <c r="F127">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C127,2)</f>
         <v>19</v>
       </c>
     </row>
@@ -43129,7 +43127,7 @@
         <v>13</v>
       </c>
       <c r="F128">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C128,2)</f>
         <v>19</v>
       </c>
     </row>
@@ -43144,7 +43142,7 @@
         <v>6</v>
       </c>
       <c r="F129">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C129,2)</f>
         <v>19</v>
       </c>
     </row>
@@ -43159,7 +43157,7 @@
         <v>5</v>
       </c>
       <c r="F130">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C130,2)</f>
         <v>19</v>
       </c>
     </row>
@@ -43174,7 +43172,7 @@
         <v>4</v>
       </c>
       <c r="F131">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C131,2)</f>
         <v>19</v>
       </c>
     </row>
@@ -43189,7 +43187,7 @@
         <v>9</v>
       </c>
       <c r="F132">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C132,2)</f>
         <v>20</v>
       </c>
     </row>
@@ -43204,7 +43202,7 @@
         <v>45</v>
       </c>
       <c r="F133">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C133,2)</f>
         <v>20</v>
       </c>
     </row>
@@ -43219,7 +43217,7 @@
         <v>12</v>
       </c>
       <c r="F134">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C134,2)</f>
         <v>20</v>
       </c>
     </row>
@@ -43234,7 +43232,7 @@
         <v>35</v>
       </c>
       <c r="F135">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C135,2)</f>
         <v>20</v>
       </c>
     </row>
@@ -43249,7 +43247,7 @@
         <v>12</v>
       </c>
       <c r="F136">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C136,2)</f>
         <v>20</v>
       </c>
     </row>
@@ -43264,7 +43262,7 @@
         <v>9</v>
       </c>
       <c r="F137">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C137,2)</f>
         <v>20</v>
       </c>
     </row>
@@ -43279,7 +43277,7 @@
         <v>2</v>
       </c>
       <c r="F138">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C138,2)</f>
         <v>20</v>
       </c>
     </row>
@@ -43294,7 +43292,7 @@
         <v>3</v>
       </c>
       <c r="F139">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C139,2)</f>
         <v>21</v>
       </c>
     </row>
@@ -43309,7 +43307,7 @@
         <v>33</v>
       </c>
       <c r="F140">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C140,2)</f>
         <v>21</v>
       </c>
     </row>
@@ -43324,7 +43322,7 @@
         <v>14</v>
       </c>
       <c r="F141">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C141,2)</f>
         <v>21</v>
       </c>
     </row>
@@ -43339,7 +43337,7 @@
         <v>12</v>
       </c>
       <c r="F142">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C142,2)</f>
         <v>21</v>
       </c>
     </row>
@@ -43354,7 +43352,7 @@
         <v>9</v>
       </c>
       <c r="F143">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C143,2)</f>
         <v>21</v>
       </c>
     </row>
@@ -43369,7 +43367,7 @@
         <v>5</v>
       </c>
       <c r="F144">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C144,2)</f>
         <v>21</v>
       </c>
     </row>
@@ -43384,7 +43382,7 @@
         <v>5</v>
       </c>
       <c r="F145">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C145,2)</f>
         <v>21</v>
       </c>
     </row>
@@ -43399,7 +43397,7 @@
         <v>5</v>
       </c>
       <c r="F146">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C146,2)</f>
         <v>22</v>
       </c>
     </row>
@@ -43414,7 +43412,7 @@
         <v>12</v>
       </c>
       <c r="F147">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C147,2)</f>
         <v>22</v>
       </c>
     </row>
@@ -43429,7 +43427,7 @@
         <v>12</v>
       </c>
       <c r="F148">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C148,2)</f>
         <v>22</v>
       </c>
     </row>
@@ -43444,7 +43442,7 @@
         <v>13</v>
       </c>
       <c r="F149">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C149,2)</f>
         <v>22</v>
       </c>
     </row>
@@ -43459,7 +43457,7 @@
         <v>9</v>
       </c>
       <c r="F150">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C150,2)</f>
         <v>22</v>
       </c>
     </row>
@@ -43474,7 +43472,7 @@
         <v>10</v>
       </c>
       <c r="F151">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C151,2)</f>
         <v>22</v>
       </c>
     </row>
@@ -43489,7 +43487,7 @@
         <v>10</v>
       </c>
       <c r="F152">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C152,2)</f>
         <v>22</v>
       </c>
     </row>
@@ -43504,7 +43502,7 @@
         <v>15</v>
       </c>
       <c r="F153">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C153,2)</f>
         <v>23</v>
       </c>
     </row>
@@ -43519,7 +43517,7 @@
         <v>44</v>
       </c>
       <c r="F154">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C154,2)</f>
         <v>23</v>
       </c>
     </row>
@@ -43534,7 +43532,7 @@
         <v>16</v>
       </c>
       <c r="F155">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C155,2)</f>
         <v>23</v>
       </c>
     </row>
@@ -43549,7 +43547,7 @@
         <v>10</v>
       </c>
       <c r="F156">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C156,2)</f>
         <v>23</v>
       </c>
     </row>
@@ -43564,7 +43562,7 @@
         <v>6</v>
       </c>
       <c r="F157">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C157,2)</f>
         <v>23</v>
       </c>
     </row>
@@ -43579,7 +43577,7 @@
         <v>2</v>
       </c>
       <c r="F158">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C158,2)</f>
         <v>23</v>
       </c>
     </row>
@@ -43594,7 +43592,7 @@
         <v>11</v>
       </c>
       <c r="F159">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C159,2)</f>
         <v>23</v>
       </c>
     </row>
@@ -43609,7 +43607,7 @@
         <v>2</v>
       </c>
       <c r="F160">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C160,2)</f>
         <v>24</v>
       </c>
     </row>
@@ -43624,7 +43622,7 @@
         <v>5</v>
       </c>
       <c r="F161">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C161,2)</f>
         <v>24</v>
       </c>
     </row>
@@ -43639,7 +43637,7 @@
         <v>5</v>
       </c>
       <c r="F162">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C162,2)</f>
         <v>24</v>
       </c>
     </row>
@@ -43654,7 +43652,7 @@
         <v>9</v>
       </c>
       <c r="F163">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C163,2)</f>
         <v>24</v>
       </c>
     </row>
@@ -43669,7 +43667,7 @@
         <v>6</v>
       </c>
       <c r="F164">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C164,2)</f>
         <v>24</v>
       </c>
     </row>
@@ -43684,7 +43682,7 @@
         <v>4</v>
       </c>
       <c r="F165">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C165,2)</f>
         <v>24</v>
       </c>
     </row>
@@ -43699,7 +43697,7 @@
         <v>10</v>
       </c>
       <c r="F166">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C166,2)</f>
         <v>24</v>
       </c>
     </row>
@@ -43714,7 +43712,7 @@
         <v>5</v>
       </c>
       <c r="F167">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C167,2)</f>
         <v>25</v>
       </c>
     </row>
@@ -43729,7 +43727,7 @@
         <v>34</v>
       </c>
       <c r="F168">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C168,2)</f>
         <v>25</v>
       </c>
     </row>
@@ -43744,7 +43742,7 @@
         <v>15</v>
       </c>
       <c r="F169">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C169,2)</f>
         <v>25</v>
       </c>
     </row>
@@ -43759,7 +43757,7 @@
         <v>2</v>
       </c>
       <c r="F170">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C170,2)</f>
         <v>25</v>
       </c>
     </row>
@@ -43774,7 +43772,7 @@
         <v>5</v>
       </c>
       <c r="F171">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C171,2)</f>
         <v>25</v>
       </c>
     </row>
@@ -43789,7 +43787,7 @@
         <v>2</v>
       </c>
       <c r="F172">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C172,2)</f>
         <v>25</v>
       </c>
     </row>
@@ -43804,7 +43802,7 @@
         <v>12</v>
       </c>
       <c r="F173">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C173,2)</f>
         <v>25</v>
       </c>
     </row>
@@ -43819,7 +43817,7 @@
         <v>9</v>
       </c>
       <c r="F174">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C174,2)</f>
         <v>26</v>
       </c>
     </row>
@@ -43834,7 +43832,7 @@
         <v>26</v>
       </c>
       <c r="F175">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C175,2)</f>
         <v>26</v>
       </c>
     </row>
@@ -43849,7 +43847,7 @@
         <v>6</v>
       </c>
       <c r="F176">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C176,2)</f>
         <v>26</v>
       </c>
     </row>
@@ -43864,7 +43862,7 @@
         <v>17</v>
       </c>
       <c r="F177">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C177,2)</f>
         <v>26</v>
       </c>
     </row>
@@ -43879,7 +43877,7 @@
         <v>8</v>
       </c>
       <c r="F178">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C178,2)</f>
         <v>26</v>
       </c>
     </row>
@@ -43894,7 +43892,7 @@
         <v>10</v>
       </c>
       <c r="F179">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C179,2)</f>
         <v>26</v>
       </c>
     </row>
@@ -43909,7 +43907,7 @@
         <v>3</v>
       </c>
       <c r="F180">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C180,2)</f>
         <v>26</v>
       </c>
     </row>
@@ -43924,7 +43922,7 @@
         <v>4</v>
       </c>
       <c r="F181">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C181,2)</f>
         <v>27</v>
       </c>
     </row>
@@ -43939,7 +43937,7 @@
         <v>24</v>
       </c>
       <c r="F182">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C182,2)</f>
         <v>27</v>
       </c>
     </row>
@@ -43954,7 +43952,7 @@
         <v>22</v>
       </c>
       <c r="F183">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C183,2)</f>
         <v>27</v>
       </c>
     </row>
@@ -43969,7 +43967,7 @@
         <v>6</v>
       </c>
       <c r="F184">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C184,2)</f>
         <v>27</v>
       </c>
     </row>
@@ -43984,7 +43982,7 @@
         <v>20</v>
       </c>
       <c r="F185">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C185,2)</f>
         <v>27</v>
       </c>
     </row>
@@ -43999,7 +43997,7 @@
         <v>7</v>
       </c>
       <c r="F186">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C186,2)</f>
         <v>27</v>
       </c>
     </row>
@@ -44014,7 +44012,7 @@
         <v>24</v>
       </c>
       <c r="F187">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C187,2)</f>
         <v>27</v>
       </c>
     </row>
@@ -44029,7 +44027,7 @@
         <v>13</v>
       </c>
       <c r="F188">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C188,2)</f>
         <v>28</v>
       </c>
     </row>
@@ -44044,7 +44042,7 @@
         <v>8</v>
       </c>
       <c r="F189">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C189,2)</f>
         <v>28</v>
       </c>
     </row>
@@ -44059,7 +44057,7 @@
         <v>7</v>
       </c>
       <c r="F190">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C190,2)</f>
         <v>28</v>
       </c>
     </row>
@@ -44074,7 +44072,7 @@
         <v>26</v>
       </c>
       <c r="F191">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C191,2)</f>
         <v>28</v>
       </c>
     </row>
@@ -44089,7 +44087,7 @@
         <v>9</v>
       </c>
       <c r="F192">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C192,2)</f>
         <v>28</v>
       </c>
     </row>
@@ -44104,7 +44102,7 @@
         <v>6</v>
       </c>
       <c r="F193">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C193,2)</f>
         <v>28</v>
       </c>
     </row>
@@ -44119,7 +44117,7 @@
         <v>6</v>
       </c>
       <c r="F194">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C194,2)</f>
         <v>28</v>
       </c>
     </row>
@@ -44134,7 +44132,7 @@
         <v>10</v>
       </c>
       <c r="F195">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C195,2)</f>
         <v>29</v>
       </c>
     </row>
@@ -44149,7 +44147,7 @@
         <v>66</v>
       </c>
       <c r="F196">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C196,2)</f>
         <v>29</v>
       </c>
     </row>
@@ -44164,7 +44162,7 @@
         <v>68</v>
       </c>
       <c r="F197">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C197,2)</f>
         <v>29</v>
       </c>
     </row>
@@ -44179,7 +44177,7 @@
         <v>52</v>
       </c>
       <c r="F198">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C198,2)</f>
         <v>29</v>
       </c>
     </row>
@@ -44194,7 +44192,7 @@
         <v>17</v>
       </c>
       <c r="F199">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C199,2)</f>
         <v>29</v>
       </c>
     </row>
@@ -44209,7 +44207,7 @@
         <v>4</v>
       </c>
       <c r="F200">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C200,2)</f>
         <v>29</v>
       </c>
     </row>
@@ -44224,7 +44222,7 @@
         <v>18</v>
       </c>
       <c r="F201">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C201,2)</f>
         <v>29</v>
       </c>
     </row>
@@ -44239,7 +44237,7 @@
         <v>13</v>
       </c>
       <c r="F202">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C202,2)</f>
         <v>30</v>
       </c>
     </row>
@@ -44254,7 +44252,7 @@
         <v>12</v>
       </c>
       <c r="F203">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C203,2)</f>
         <v>30</v>
       </c>
     </row>
@@ -44269,7 +44267,7 @@
         <v>4</v>
       </c>
       <c r="F204">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C204,2)</f>
         <v>30</v>
       </c>
     </row>
@@ -44284,7 +44282,7 @@
         <v>28</v>
       </c>
       <c r="F205">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C205,2)</f>
         <v>30</v>
       </c>
     </row>
@@ -44299,7 +44297,7 @@
         <v>5</v>
       </c>
       <c r="F206">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C206,2)</f>
         <v>30</v>
       </c>
     </row>
@@ -44314,7 +44312,7 @@
         <v>1</v>
       </c>
       <c r="F207">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C207,2)</f>
         <v>30</v>
       </c>
     </row>
@@ -44329,7 +44327,7 @@
         <v>15</v>
       </c>
       <c r="F208">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C208,2)</f>
         <v>30</v>
       </c>
     </row>
@@ -44344,7 +44342,7 @@
         <v>9</v>
       </c>
       <c r="F209">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C209,2)</f>
         <v>31</v>
       </c>
     </row>
@@ -44359,7 +44357,7 @@
         <v>15</v>
       </c>
       <c r="F210">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C210,2)</f>
         <v>31</v>
       </c>
     </row>
@@ -44374,7 +44372,7 @@
         <v>7</v>
       </c>
       <c r="F211">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C211,2)</f>
         <v>31</v>
       </c>
     </row>
@@ -44389,7 +44387,7 @@
         <v>7</v>
       </c>
       <c r="F212">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C212,2)</f>
         <v>31</v>
       </c>
     </row>
@@ -44404,7 +44402,7 @@
         <v>4</v>
       </c>
       <c r="F213">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C213,2)</f>
         <v>31</v>
       </c>
     </row>
@@ -44419,7 +44417,7 @@
         <v>3</v>
       </c>
       <c r="F214">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C214,2)</f>
         <v>31</v>
       </c>
     </row>
@@ -44434,7 +44432,7 @@
         <v>18</v>
       </c>
       <c r="F215">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C215,2)</f>
         <v>31</v>
       </c>
     </row>
@@ -44449,7 +44447,7 @@
         <v>3</v>
       </c>
       <c r="F216">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C216,2)</f>
         <v>32</v>
       </c>
     </row>
@@ -44464,7 +44462,7 @@
         <v>7</v>
       </c>
       <c r="F217">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C217,2)</f>
         <v>32</v>
       </c>
     </row>
@@ -44479,7 +44477,7 @@
         <v>2</v>
       </c>
       <c r="F218">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C218,2)</f>
         <v>32</v>
       </c>
     </row>
@@ -44494,7 +44492,7 @@
         <v>12</v>
       </c>
       <c r="F219">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C219,2)</f>
         <v>32</v>
       </c>
     </row>
@@ -44509,7 +44507,7 @@
         <v>17</v>
       </c>
       <c r="F220">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C220,2)</f>
         <v>32</v>
       </c>
     </row>
@@ -44524,7 +44522,7 @@
         <v>15</v>
       </c>
       <c r="F221">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C221,2)</f>
         <v>32</v>
       </c>
     </row>
@@ -44539,7 +44537,7 @@
         <v>3</v>
       </c>
       <c r="F222">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C222,2)</f>
         <v>32</v>
       </c>
     </row>
@@ -44554,7 +44552,7 @@
         <v>7</v>
       </c>
       <c r="F223">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C223,2)</f>
         <v>33</v>
       </c>
     </row>
@@ -44569,7 +44567,7 @@
         <v>14</v>
       </c>
       <c r="F224">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C224,2)</f>
         <v>33</v>
       </c>
     </row>
@@ -44584,7 +44582,7 @@
         <v>9</v>
       </c>
       <c r="F225">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C225,2)</f>
         <v>33</v>
       </c>
     </row>
@@ -44599,7 +44597,7 @@
         <v>7</v>
       </c>
       <c r="F226">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C226,2)</f>
         <v>33</v>
       </c>
     </row>
@@ -44614,7 +44612,7 @@
         <v>6</v>
       </c>
       <c r="F227">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C227,2)</f>
         <v>33</v>
       </c>
     </row>
@@ -44629,7 +44627,7 @@
         <v>2</v>
       </c>
       <c r="F228">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C228,2)</f>
         <v>33</v>
       </c>
     </row>
@@ -44644,7 +44642,7 @@
         <v>6</v>
       </c>
       <c r="F229">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C229,2)</f>
         <v>33</v>
       </c>
     </row>
@@ -44659,7 +44657,7 @@
         <v>5</v>
       </c>
       <c r="F230">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C230,2)</f>
         <v>34</v>
       </c>
     </row>
@@ -44674,7 +44672,7 @@
         <v>23</v>
       </c>
       <c r="F231">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C231,2)</f>
         <v>34</v>
       </c>
     </row>
@@ -44689,7 +44687,7 @@
         <v>11</v>
       </c>
       <c r="F232">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C232,2)</f>
         <v>34</v>
       </c>
     </row>
@@ -44704,7 +44702,7 @@
         <v>11</v>
       </c>
       <c r="F233">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C233,2)</f>
         <v>34</v>
       </c>
     </row>
@@ -44719,7 +44717,7 @@
         <v>5</v>
       </c>
       <c r="F234">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C234,2)</f>
         <v>34</v>
       </c>
     </row>
@@ -44734,7 +44732,7 @@
         <v>5</v>
       </c>
       <c r="F235">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C235,2)</f>
         <v>34</v>
       </c>
     </row>
@@ -44749,7 +44747,7 @@
         <v>16</v>
       </c>
       <c r="F236">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C236,2)</f>
         <v>34</v>
       </c>
     </row>
@@ -44764,7 +44762,7 @@
         <v>5</v>
       </c>
       <c r="F237">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C237,2)</f>
         <v>35</v>
       </c>
     </row>
@@ -44779,7 +44777,7 @@
         <v>5</v>
       </c>
       <c r="F238">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C238,2)</f>
         <v>35</v>
       </c>
     </row>
@@ -44794,7 +44792,7 @@
         <v>3</v>
       </c>
       <c r="F239">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C239,2)</f>
         <v>35</v>
       </c>
     </row>
@@ -44809,7 +44807,7 @@
         <v>4</v>
       </c>
       <c r="F240">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C240,2)</f>
         <v>35</v>
       </c>
     </row>
@@ -44824,7 +44822,7 @@
         <v>3</v>
       </c>
       <c r="F241">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C241,2)</f>
         <v>35</v>
       </c>
     </row>
@@ -44839,7 +44837,7 @@
         <v>38</v>
       </c>
       <c r="F242">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C242,2)</f>
         <v>35</v>
       </c>
     </row>
@@ -44854,7 +44852,7 @@
         <v>9</v>
       </c>
       <c r="F243">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C243,2)</f>
         <v>35</v>
       </c>
     </row>
@@ -44869,7 +44867,7 @@
         <v>18</v>
       </c>
       <c r="F244">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C244,2)</f>
         <v>36</v>
       </c>
     </row>
@@ -44884,7 +44882,7 @@
         <v>23</v>
       </c>
       <c r="F245">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C245,2)</f>
         <v>36</v>
       </c>
     </row>
@@ -44899,7 +44897,7 @@
         <v>19</v>
       </c>
       <c r="F246">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C246,2)</f>
         <v>36</v>
       </c>
     </row>
@@ -44914,7 +44912,7 @@
         <v>8</v>
       </c>
       <c r="F247">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C247,2)</f>
         <v>36</v>
       </c>
     </row>
@@ -44929,7 +44927,7 @@
         <v>6</v>
       </c>
       <c r="F248">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C248,2)</f>
         <v>36</v>
       </c>
     </row>
@@ -44944,7 +44942,7 @@
         <v>4</v>
       </c>
       <c r="F249">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C249,2)</f>
         <v>36</v>
       </c>
     </row>
@@ -44959,7 +44957,7 @@
         <v>14</v>
       </c>
       <c r="F250">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C250,2)</f>
         <v>36</v>
       </c>
     </row>
@@ -44974,7 +44972,7 @@
         <v>6</v>
       </c>
       <c r="F251">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C251,2)</f>
         <v>37</v>
       </c>
     </row>
@@ -44989,7 +44987,7 @@
         <v>5</v>
       </c>
       <c r="F252">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C252,2)</f>
         <v>37</v>
       </c>
     </row>
@@ -45004,7 +45002,7 @@
         <v>8</v>
       </c>
       <c r="F253">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C253,2)</f>
         <v>37</v>
       </c>
     </row>
@@ -45019,7 +45017,7 @@
         <v>9</v>
       </c>
       <c r="F254">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C254,2)</f>
         <v>37</v>
       </c>
     </row>
@@ -45034,7 +45032,7 @@
         <v>8</v>
       </c>
       <c r="F255">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C255,2)</f>
         <v>37</v>
       </c>
     </row>
@@ -45049,7 +45047,7 @@
         <v>8</v>
       </c>
       <c r="F256">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C256,2)</f>
         <v>37</v>
       </c>
     </row>
@@ -45064,7 +45062,7 @@
         <v>2</v>
       </c>
       <c r="F257">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C257,2)</f>
         <v>37</v>
       </c>
     </row>
@@ -45079,7 +45077,7 @@
         <v>4</v>
       </c>
       <c r="F258">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C258,2)</f>
         <v>38</v>
       </c>
     </row>
@@ -45094,7 +45092,7 @@
         <v>25</v>
       </c>
       <c r="F259">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C259,2)</f>
         <v>38</v>
       </c>
     </row>
@@ -45109,7 +45107,7 @@
         <v>13</v>
       </c>
       <c r="F260">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C260,2)</f>
         <v>38</v>
       </c>
     </row>
@@ -45124,7 +45122,7 @@
         <v>20</v>
       </c>
       <c r="F261">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C261,2)</f>
         <v>38</v>
       </c>
     </row>
@@ -45139,7 +45137,7 @@
         <v>9</v>
       </c>
       <c r="F262">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C262,2)</f>
         <v>38</v>
       </c>
     </row>
@@ -45154,7 +45152,7 @@
         <v>4</v>
       </c>
       <c r="F263">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C263,2)</f>
         <v>38</v>
       </c>
     </row>
@@ -45169,7 +45167,7 @@
         <v>5</v>
       </c>
       <c r="F264">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C264,2)</f>
         <v>38</v>
       </c>
     </row>
@@ -45184,7 +45182,7 @@
         <v>14</v>
       </c>
       <c r="F265">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C265,2)</f>
         <v>39</v>
       </c>
     </row>
@@ -45199,7 +45197,7 @@
         <v>16</v>
       </c>
       <c r="F266">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C266,2)</f>
         <v>39</v>
       </c>
     </row>
@@ -45214,7 +45212,7 @@
         <v>14</v>
       </c>
       <c r="F267">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C267,2)</f>
         <v>39</v>
       </c>
     </row>
@@ -45229,7 +45227,7 @@
         <v>16</v>
       </c>
       <c r="F268">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C268,2)</f>
         <v>39</v>
       </c>
     </row>
@@ -45244,7 +45242,7 @@
         <v>15</v>
       </c>
       <c r="F269">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C269,2)</f>
         <v>39</v>
       </c>
     </row>
@@ -45259,7 +45257,7 @@
         <v>21</v>
       </c>
       <c r="F270">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C270,2)</f>
         <v>39</v>
       </c>
     </row>
@@ -45274,7 +45272,7 @@
         <v>22</v>
       </c>
       <c r="F271">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C271,2)</f>
         <v>39</v>
       </c>
     </row>
@@ -45289,7 +45287,7 @@
         <v>34</v>
       </c>
       <c r="F272">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C272,2)</f>
         <v>40</v>
       </c>
     </row>
@@ -45304,7 +45302,7 @@
         <v>12</v>
       </c>
       <c r="F273">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C273,2)</f>
         <v>40</v>
       </c>
     </row>
@@ -45319,7 +45317,7 @@
         <v>13</v>
       </c>
       <c r="F274">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C274,2)</f>
         <v>40</v>
       </c>
     </row>
@@ -45334,7 +45332,7 @@
         <v>22</v>
       </c>
       <c r="F275">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C275,2)</f>
         <v>40</v>
       </c>
     </row>
@@ -45349,7 +45347,7 @@
         <v>24</v>
       </c>
       <c r="F276">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C276,2)</f>
         <v>40</v>
       </c>
     </row>
@@ -45364,7 +45362,7 @@
         <v>15</v>
       </c>
       <c r="F277">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C277,2)</f>
         <v>40</v>
       </c>
     </row>
@@ -45379,7 +45377,7 @@
         <v>16</v>
       </c>
       <c r="F278">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C278,2)</f>
         <v>40</v>
       </c>
     </row>
@@ -45394,7 +45392,7 @@
         <v>17</v>
       </c>
       <c r="F279">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C279,2)</f>
         <v>41</v>
       </c>
     </row>
@@ -45409,7 +45407,7 @@
         <v>17</v>
       </c>
       <c r="F280">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C280,2)</f>
         <v>41</v>
       </c>
     </row>
@@ -45424,7 +45422,7 @@
         <v>27</v>
       </c>
       <c r="F281">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C281,2)</f>
         <v>41</v>
       </c>
     </row>
@@ -45439,7 +45437,7 @@
         <v>26</v>
       </c>
       <c r="F282">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C282,2)</f>
         <v>41</v>
       </c>
     </row>
@@ -45454,7 +45452,7 @@
         <v>27</v>
       </c>
       <c r="F283">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C283,2)</f>
         <v>41</v>
       </c>
     </row>
@@ -45469,7 +45467,7 @@
         <v>25</v>
       </c>
       <c r="F284">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C284,2)</f>
         <v>41</v>
       </c>
     </row>
@@ -45484,7 +45482,7 @@
         <v>22</v>
       </c>
       <c r="F285">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C285,2)</f>
         <v>41</v>
       </c>
     </row>
@@ -45499,7 +45497,7 @@
         <v>23</v>
       </c>
       <c r="F286">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C286,2)</f>
         <v>42</v>
       </c>
     </row>
@@ -45514,7 +45512,7 @@
         <v>29</v>
       </c>
       <c r="F287">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C287,2)</f>
         <v>42</v>
       </c>
     </row>
@@ -45529,7 +45527,7 @@
         <v>26</v>
       </c>
       <c r="F288">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C288,2)</f>
         <v>42</v>
       </c>
     </row>
@@ -45544,7 +45542,7 @@
         <v>23</v>
       </c>
       <c r="F289">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C289,2)</f>
         <v>42</v>
       </c>
     </row>
@@ -45559,7 +45557,7 @@
         <v>38</v>
       </c>
       <c r="F290">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C290,2)</f>
         <v>42</v>
       </c>
     </row>
@@ -45574,7 +45572,7 @@
         <v>14</v>
       </c>
       <c r="F291">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C291,2)</f>
         <v>42</v>
       </c>
     </row>
@@ -45589,7 +45587,7 @@
         <v>14</v>
       </c>
       <c r="F292">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C292,2)</f>
         <v>42</v>
       </c>
     </row>
@@ -45604,7 +45602,7 @@
         <v>49</v>
       </c>
       <c r="F293">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C293,2)</f>
         <v>43</v>
       </c>
     </row>
@@ -45619,7 +45617,7 @@
         <v>59</v>
       </c>
       <c r="F294">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C294,2)</f>
         <v>43</v>
       </c>
     </row>
@@ -45634,7 +45632,7 @@
         <v>32</v>
       </c>
       <c r="F295">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C295,2)</f>
         <v>43</v>
       </c>
     </row>
@@ -45649,7 +45647,7 @@
         <v>27</v>
       </c>
       <c r="F296">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C296,2)</f>
         <v>43</v>
       </c>
     </row>
@@ -45664,7 +45662,7 @@
         <v>29</v>
       </c>
       <c r="F297">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C297,2)</f>
         <v>43</v>
       </c>
     </row>
@@ -45679,7 +45677,7 @@
         <v>37</v>
       </c>
       <c r="F298">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C298,2)</f>
         <v>43</v>
       </c>
     </row>
@@ -45694,7 +45692,7 @@
         <v>22</v>
       </c>
       <c r="F299">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C299,2)</f>
         <v>43</v>
       </c>
     </row>
@@ -45709,7 +45707,7 @@
         <v>26</v>
       </c>
       <c r="F300">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C300,2)</f>
         <v>44</v>
       </c>
     </row>
@@ -45724,7 +45722,7 @@
         <v>19</v>
       </c>
       <c r="F301">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C301,2)</f>
         <v>44</v>
       </c>
     </row>
@@ -45739,7 +45737,7 @@
         <v>79</v>
       </c>
       <c r="F302">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C302,2)</f>
         <v>44</v>
       </c>
     </row>
@@ -45754,7 +45752,7 @@
         <v>57</v>
       </c>
       <c r="F303">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C303,2)</f>
         <v>44</v>
       </c>
     </row>
@@ -45769,7 +45767,7 @@
         <v>26</v>
       </c>
       <c r="F304">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C304,2)</f>
         <v>44</v>
       </c>
     </row>
@@ -45784,7 +45782,7 @@
         <v>16</v>
       </c>
       <c r="F305">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C305,2)</f>
         <v>44</v>
       </c>
     </row>
@@ -45799,7 +45797,7 @@
         <v>29</v>
       </c>
       <c r="F306">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C306,2)</f>
         <v>44</v>
       </c>
     </row>
@@ -45814,7 +45812,7 @@
         <v>20</v>
       </c>
       <c r="F307">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C307,2)</f>
         <v>45</v>
       </c>
     </row>
@@ -45829,7 +45827,7 @@
         <v>55</v>
       </c>
       <c r="F308">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C308,2)</f>
         <v>45</v>
       </c>
     </row>
@@ -45844,7 +45842,7 @@
         <v>29</v>
       </c>
       <c r="F309">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C309,2)</f>
         <v>45</v>
       </c>
     </row>
@@ -45859,7 +45857,7 @@
         <v>17</v>
       </c>
       <c r="F310">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C310,2)</f>
         <v>45</v>
       </c>
     </row>
@@ -45874,7 +45872,7 @@
         <v>22</v>
       </c>
       <c r="F311">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C311,2)</f>
         <v>45</v>
       </c>
     </row>
@@ -45889,7 +45887,7 @@
         <v>12</v>
       </c>
       <c r="F312">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C312,2)</f>
         <v>45</v>
       </c>
     </row>
@@ -45904,7 +45902,7 @@
         <v>20</v>
       </c>
       <c r="F313">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C313,2)</f>
         <v>45</v>
       </c>
     </row>
@@ -45919,7 +45917,7 @@
         <v>13</v>
       </c>
       <c r="F314">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C314,2)</f>
         <v>46</v>
       </c>
     </row>
@@ -45934,7 +45932,7 @@
         <v>20</v>
       </c>
       <c r="F315">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C315,2)</f>
         <v>46</v>
       </c>
     </row>
@@ -45949,7 +45947,7 @@
         <v>15</v>
       </c>
       <c r="F316">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C316,2)</f>
         <v>46</v>
       </c>
     </row>
@@ -45964,7 +45962,7 @@
         <v>30</v>
       </c>
       <c r="F317">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C317,2)</f>
         <v>46</v>
       </c>
     </row>
@@ -45979,7 +45977,7 @@
         <v>23</v>
       </c>
       <c r="F318">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C318,2)</f>
         <v>46</v>
       </c>
     </row>
@@ -45994,7 +45992,7 @@
         <v>12</v>
       </c>
       <c r="F319">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C319,2)</f>
         <v>46</v>
       </c>
     </row>
@@ -46009,7 +46007,7 @@
         <v>13</v>
       </c>
       <c r="F320">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C320,2)</f>
         <v>46</v>
       </c>
     </row>
@@ -46024,7 +46022,7 @@
         <v>22</v>
       </c>
       <c r="F321">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C321,2)</f>
         <v>47</v>
       </c>
     </row>
@@ -46039,7 +46037,7 @@
         <v>33</v>
       </c>
       <c r="F322">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C322,2)</f>
         <v>47</v>
       </c>
     </row>
@@ -46054,7 +46052,7 @@
         <v>29</v>
       </c>
       <c r="F323">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C323,2)</f>
         <v>47</v>
       </c>
     </row>
@@ -46069,7 +46067,7 @@
         <v>49</v>
       </c>
       <c r="F324">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C324,2)</f>
         <v>47</v>
       </c>
     </row>
@@ -46084,7 +46082,7 @@
         <v>25</v>
       </c>
       <c r="F325">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C325,2)</f>
         <v>47</v>
       </c>
     </row>
@@ -46099,7 +46097,7 @@
         <v>21</v>
       </c>
       <c r="F326">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C326,2)</f>
         <v>47</v>
       </c>
     </row>
@@ -46114,7 +46112,7 @@
         <v>23</v>
       </c>
       <c r="F327">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C327,2)</f>
         <v>47</v>
       </c>
     </row>
@@ -46129,7 +46127,7 @@
         <v>13</v>
       </c>
       <c r="F328">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C328,2)</f>
         <v>48</v>
       </c>
     </row>
@@ -46144,7 +46142,7 @@
         <v>64</v>
       </c>
       <c r="F329">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C329,2)</f>
         <v>48</v>
       </c>
     </row>
@@ -46159,7 +46157,7 @@
         <v>22</v>
       </c>
       <c r="F330">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C330,2)</f>
         <v>48</v>
       </c>
     </row>
@@ -46174,7 +46172,7 @@
         <v>107</v>
       </c>
       <c r="F331">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C331,2)</f>
         <v>48</v>
       </c>
     </row>
@@ -46189,7 +46187,7 @@
         <v>316</v>
       </c>
       <c r="F332">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C332,2)</f>
         <v>48</v>
       </c>
     </row>
@@ -46204,7 +46202,7 @@
         <v>77</v>
       </c>
       <c r="F333">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C333,2)</f>
         <v>48</v>
       </c>
     </row>
@@ -46219,7 +46217,7 @@
         <v>36</v>
       </c>
       <c r="F334">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C334,2)</f>
         <v>48</v>
       </c>
     </row>
@@ -46234,7 +46232,7 @@
         <v>58</v>
       </c>
       <c r="F335">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C335,2)</f>
         <v>49</v>
       </c>
     </row>
@@ -46249,7 +46247,7 @@
         <v>13</v>
       </c>
       <c r="F336">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C336,2)</f>
         <v>49</v>
       </c>
     </row>
@@ -46264,7 +46262,7 @@
         <v>5</v>
       </c>
       <c r="F337">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C337,2)</f>
         <v>49</v>
       </c>
     </row>
@@ -46279,7 +46277,7 @@
         <v>6</v>
       </c>
       <c r="F338">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C338,2)</f>
         <v>49</v>
       </c>
     </row>
@@ -46294,7 +46292,7 @@
         <v>15</v>
       </c>
       <c r="F339">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C339,2)</f>
         <v>49</v>
       </c>
     </row>
@@ -46309,7 +46307,7 @@
         <v>12</v>
       </c>
       <c r="F340">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C340,2)</f>
         <v>49</v>
       </c>
     </row>
@@ -46324,7 +46322,7 @@
         <v>7</v>
       </c>
       <c r="F341">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C341,2)</f>
         <v>49</v>
       </c>
     </row>
@@ -46339,7 +46337,7 @@
         <v>10</v>
       </c>
       <c r="F342">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C342,2)</f>
         <v>50</v>
       </c>
     </row>
@@ -46354,7 +46352,7 @@
         <v>31</v>
       </c>
       <c r="F343">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C343,2)</f>
         <v>50</v>
       </c>
     </row>
@@ -46369,7 +46367,7 @@
         <v>23</v>
       </c>
       <c r="F344">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C344,2)</f>
         <v>50</v>
       </c>
     </row>
@@ -46384,7 +46382,7 @@
         <v>30</v>
       </c>
       <c r="F345">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C345,2)</f>
         <v>50</v>
       </c>
     </row>
@@ -46399,7 +46397,7 @@
         <v>40</v>
       </c>
       <c r="F346">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C346,2)</f>
         <v>50</v>
       </c>
     </row>
@@ -46414,7 +46412,7 @@
         <v>41</v>
       </c>
       <c r="F347">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C347,2)</f>
         <v>50</v>
       </c>
     </row>
@@ -46429,7 +46427,7 @@
         <v>16</v>
       </c>
       <c r="F348">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C348,2)</f>
         <v>50</v>
       </c>
     </row>
@@ -46444,7 +46442,7 @@
         <v>51</v>
       </c>
       <c r="F349">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C349,2)</f>
         <v>51</v>
       </c>
     </row>
@@ -46459,7 +46457,7 @@
         <v>15</v>
       </c>
       <c r="F350">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C350,2)</f>
         <v>51</v>
       </c>
     </row>
@@ -46474,7 +46472,7 @@
         <v>71</v>
       </c>
       <c r="F351">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C351,2)</f>
         <v>51</v>
       </c>
     </row>
@@ -46489,7 +46487,7 @@
         <v>44</v>
       </c>
       <c r="F352">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C352,2)</f>
         <v>51</v>
       </c>
     </row>
@@ -46504,7 +46502,7 @@
         <v>19</v>
       </c>
       <c r="F353">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C353,2)</f>
         <v>51</v>
       </c>
     </row>
@@ -46519,7 +46517,7 @@
         <v>18</v>
       </c>
       <c r="F354">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C354,2)</f>
         <v>51</v>
       </c>
     </row>
@@ -46534,7 +46532,7 @@
         <v>11</v>
       </c>
       <c r="F355">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C355,2)</f>
         <v>51</v>
       </c>
     </row>
@@ -46549,7 +46547,7 @@
         <v>30</v>
       </c>
       <c r="F356">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C356,2)</f>
         <v>52</v>
       </c>
     </row>
@@ -46564,7 +46562,7 @@
         <v>18</v>
       </c>
       <c r="F357">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C357,2)</f>
         <v>52</v>
       </c>
     </row>
@@ -46579,7 +46577,7 @@
         <v>24</v>
       </c>
       <c r="F358">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C358,2)</f>
         <v>52</v>
       </c>
     </row>
@@ -46594,7 +46592,7 @@
         <v>130</v>
       </c>
       <c r="F359">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C359,2)</f>
         <v>52</v>
       </c>
     </row>
@@ -46609,7 +46607,7 @@
         <v>47</v>
       </c>
       <c r="F360">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C360,2)</f>
         <v>52</v>
       </c>
     </row>
@@ -46624,7 +46622,7 @@
         <v>30</v>
       </c>
       <c r="F361">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C361,2)</f>
         <v>52</v>
       </c>
     </row>
@@ -46639,7 +46637,7 @@
         <v>13</v>
       </c>
       <c r="F362">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C362,2)</f>
         <v>52</v>
       </c>
     </row>
@@ -46654,7 +46652,7 @@
         <v>7</v>
       </c>
       <c r="F363">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C363,2)</f>
         <v>53</v>
       </c>
     </row>
@@ -46669,7 +46667,7 @@
         <v>18</v>
       </c>
       <c r="F364">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C364,2)</f>
         <v>53</v>
       </c>
     </row>
@@ -46684,7 +46682,7 @@
         <v>21</v>
       </c>
       <c r="F365">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C365,2)</f>
         <v>1</v>
       </c>
     </row>
@@ -46699,7 +46697,7 @@
         <v>12</v>
       </c>
       <c r="F366">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C366,2)</f>
         <v>1</v>
       </c>
     </row>
@@ -46714,7 +46712,7 @@
         <v>26</v>
       </c>
       <c r="F367">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C367,2)</f>
         <v>1</v>
       </c>
     </row>
@@ -46729,7 +46727,7 @@
         <v>13</v>
       </c>
       <c r="F368">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C368,2)</f>
         <v>1</v>
       </c>
     </row>
@@ -46744,7 +46742,7 @@
         <v>45</v>
       </c>
       <c r="F369">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C369,2)</f>
         <v>1</v>
       </c>
     </row>
@@ -46759,7 +46757,7 @@
         <v>11</v>
       </c>
       <c r="F370">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C370,2)</f>
         <v>2</v>
       </c>
     </row>
@@ -46774,7 +46772,7 @@
         <v>50</v>
       </c>
       <c r="F371">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C371,2)</f>
         <v>2</v>
       </c>
     </row>
@@ -46789,7 +46787,7 @@
         <v>10</v>
       </c>
       <c r="F372">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C372,2)</f>
         <v>2</v>
       </c>
     </row>
@@ -46804,7 +46802,7 @@
         <v>14</v>
       </c>
       <c r="F373">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C373,2)</f>
         <v>2</v>
       </c>
     </row>
@@ -46819,7 +46817,7 @@
         <v>108</v>
       </c>
       <c r="F374">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C374,2)</f>
         <v>2</v>
       </c>
     </row>
@@ -46834,7 +46832,7 @@
         <v>13</v>
       </c>
       <c r="F375">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C375,2)</f>
         <v>2</v>
       </c>
     </row>
@@ -46849,7 +46847,7 @@
         <v>6</v>
       </c>
       <c r="F376">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C376,2)</f>
         <v>2</v>
       </c>
     </row>
@@ -46864,7 +46862,7 @@
         <v>5</v>
       </c>
       <c r="F377">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C377,2)</f>
         <v>3</v>
       </c>
     </row>
@@ -46879,7 +46877,7 @@
         <v>4</v>
       </c>
       <c r="F378">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C378,2)</f>
         <v>3</v>
       </c>
     </row>
@@ -46894,7 +46892,7 @@
         <v>5</v>
       </c>
       <c r="F379">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C379,2)</f>
         <v>3</v>
       </c>
     </row>
@@ -46909,7 +46907,7 @@
         <v>9</v>
       </c>
       <c r="F380">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C380,2)</f>
         <v>3</v>
       </c>
     </row>
@@ -46924,7 +46922,7 @@
         <v>20</v>
       </c>
       <c r="F381">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C381,2)</f>
         <v>3</v>
       </c>
     </row>
@@ -46939,7 +46937,7 @@
         <v>5</v>
       </c>
       <c r="F382">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C382,2)</f>
         <v>3</v>
       </c>
     </row>
@@ -46954,7 +46952,7 @@
         <v>3</v>
       </c>
       <c r="F383">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C383,2)</f>
         <v>3</v>
       </c>
     </row>
@@ -46969,7 +46967,7 @@
         <v>12</v>
       </c>
       <c r="F384">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C384,2)</f>
         <v>4</v>
       </c>
     </row>
@@ -46984,7 +46982,7 @@
         <v>10</v>
       </c>
       <c r="F385">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C385,2)</f>
         <v>4</v>
       </c>
     </row>
@@ -46999,7 +46997,7 @@
         <v>11</v>
       </c>
       <c r="F386">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C386,2)</f>
         <v>4</v>
       </c>
     </row>
@@ -47014,7 +47012,7 @@
         <v>6</v>
       </c>
       <c r="F387">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C387,2)</f>
         <v>4</v>
       </c>
     </row>
@@ -47029,7 +47027,7 @@
         <v>39</v>
       </c>
       <c r="F388">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C388,2)</f>
         <v>4</v>
       </c>
     </row>
@@ -47044,7 +47042,7 @@
         <v>13</v>
       </c>
       <c r="F389">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C389,2)</f>
         <v>4</v>
       </c>
     </row>
@@ -47059,7 +47057,7 @@
         <v>11</v>
       </c>
       <c r="F390">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C390,2)</f>
         <v>4</v>
       </c>
     </row>
@@ -47074,7 +47072,7 @@
         <v>11</v>
       </c>
       <c r="F391">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C391,2)</f>
         <v>5</v>
       </c>
     </row>
@@ -47089,7 +47087,7 @@
         <v>20</v>
       </c>
       <c r="F392">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C392,2)</f>
         <v>5</v>
       </c>
     </row>
@@ -47104,7 +47102,7 @@
         <v>2</v>
       </c>
       <c r="F393">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C393,2)</f>
         <v>5</v>
       </c>
     </row>
@@ -47119,7 +47117,7 @@
         <v>8</v>
       </c>
       <c r="F394">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C394,2)</f>
         <v>5</v>
       </c>
     </row>
@@ -47134,7 +47132,7 @@
         <v>6</v>
       </c>
       <c r="F395">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C395,2)</f>
         <v>5</v>
       </c>
     </row>
@@ -47149,7 +47147,7 @@
         <v>15</v>
       </c>
       <c r="F396">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C396,2)</f>
         <v>5</v>
       </c>
     </row>
@@ -47164,7 +47162,7 @@
         <v>6</v>
       </c>
       <c r="F397">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C397,2)</f>
         <v>5</v>
       </c>
     </row>
@@ -47179,7 +47177,7 @@
         <v>12</v>
       </c>
       <c r="F398">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C398,2)</f>
         <v>6</v>
       </c>
     </row>
@@ -47194,7 +47192,7 @@
         <v>37</v>
       </c>
       <c r="F399">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C399,2)</f>
         <v>6</v>
       </c>
     </row>
@@ -47209,7 +47207,7 @@
         <v>13</v>
       </c>
       <c r="F400">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C400,2)</f>
         <v>6</v>
       </c>
     </row>
@@ -47224,7 +47222,7 @@
         <v>2</v>
       </c>
       <c r="F401">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C401,2)</f>
         <v>6</v>
       </c>
     </row>
@@ -47239,7 +47237,7 @@
         <v>24</v>
       </c>
       <c r="F402">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C402,2)</f>
         <v>6</v>
       </c>
     </row>
@@ -47254,7 +47252,7 @@
         <v>10</v>
       </c>
       <c r="F403">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C403,2)</f>
         <v>6</v>
       </c>
     </row>
@@ -47269,7 +47267,7 @@
         <v>11</v>
       </c>
       <c r="F404">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C404,2)</f>
         <v>6</v>
       </c>
     </row>
@@ -47284,7 +47282,7 @@
         <v>20</v>
       </c>
       <c r="F405">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C405,2)</f>
         <v>7</v>
       </c>
     </row>
@@ -47299,7 +47297,7 @@
         <v>38</v>
       </c>
       <c r="F406">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C406,2)</f>
         <v>7</v>
       </c>
     </row>
@@ -47314,7 +47312,7 @@
         <v>25</v>
       </c>
       <c r="F407">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C407,2)</f>
         <v>7</v>
       </c>
     </row>
@@ -47329,7 +47327,7 @@
         <v>13</v>
       </c>
       <c r="F408">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C408,2)</f>
         <v>7</v>
       </c>
     </row>
@@ -47344,7 +47342,7 @@
         <v>21</v>
       </c>
       <c r="F409">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C409,2)</f>
         <v>7</v>
       </c>
     </row>
@@ -47359,7 +47357,7 @@
         <v>11</v>
       </c>
       <c r="F410">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C410,2)</f>
         <v>7</v>
       </c>
     </row>
@@ -47374,7 +47372,7 @@
         <v>15</v>
       </c>
       <c r="F411">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C411,2)</f>
         <v>7</v>
       </c>
     </row>
@@ -47389,7 +47387,7 @@
         <v>13</v>
       </c>
       <c r="F412">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C412,2)</f>
         <v>8</v>
       </c>
     </row>
@@ -47404,7 +47402,7 @@
         <v>27</v>
       </c>
       <c r="F413">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C413,2)</f>
         <v>8</v>
       </c>
     </row>
@@ -47419,7 +47417,7 @@
         <v>16</v>
       </c>
       <c r="F414">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C414,2)</f>
         <v>8</v>
       </c>
     </row>
@@ -47434,7 +47432,7 @@
         <v>21</v>
       </c>
       <c r="F415">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C415,2)</f>
         <v>8</v>
       </c>
     </row>
@@ -47449,7 +47447,7 @@
         <v>47</v>
       </c>
       <c r="F416">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C416,2)</f>
         <v>8</v>
       </c>
     </row>
@@ -47464,7 +47462,7 @@
         <v>20</v>
       </c>
       <c r="F417">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C417,2)</f>
         <v>8</v>
       </c>
     </row>
@@ -47479,7 +47477,7 @@
         <v>28</v>
       </c>
       <c r="F418">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C418,2)</f>
         <v>8</v>
       </c>
     </row>
@@ -47494,7 +47492,7 @@
         <v>12</v>
       </c>
       <c r="F419">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C419,2)</f>
         <v>9</v>
       </c>
     </row>
@@ -47509,7 +47507,7 @@
         <v>36</v>
       </c>
       <c r="F420">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C420,2)</f>
         <v>9</v>
       </c>
     </row>
@@ -47524,7 +47522,7 @@
         <v>13</v>
       </c>
       <c r="F421">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C421,2)</f>
         <v>9</v>
       </c>
     </row>
@@ -47539,7 +47537,7 @@
         <v>23</v>
       </c>
       <c r="F422">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C422,2)</f>
         <v>9</v>
       </c>
     </row>
@@ -47554,7 +47552,7 @@
         <v>56</v>
       </c>
       <c r="F423">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C423,2)</f>
         <v>9</v>
       </c>
     </row>
@@ -47569,7 +47567,7 @@
         <v>37</v>
       </c>
       <c r="F424">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C424,2)</f>
         <v>9</v>
       </c>
     </row>
@@ -47584,14 +47582,542 @@
         <v>49</v>
       </c>
       <c r="F425">
-        <f>WEEKNUM(Table1[[#This Row],[Date]],2)</f>
+        <f>WEEKNUM('TV Daily Sales Data'!$C425,2)</f>
         <v>9</v>
       </c>
     </row>
+    <row r="426" spans="3:6">
+      <c r="C426" s="1">
+        <f>C425+1</f>
+        <v>41701</v>
+      </c>
+      <c r="D426">
+        <v>24</v>
+      </c>
+      <c r="E426" s="28"/>
+    </row>
     <row r="427" spans="3:6">
-      <c r="C427" t="s">
+      <c r="C427" s="1">
+        <f t="shared" ref="C427:C449" si="0">C426+1</f>
+        <v>41702</v>
+      </c>
+      <c r="D427">
+        <v>24</v>
+      </c>
+      <c r="E427" s="28"/>
+    </row>
+    <row r="428" spans="3:6">
+      <c r="C428" s="1">
+        <f t="shared" si="0"/>
+        <v>41703</v>
+      </c>
+      <c r="D428">
+        <v>24</v>
+      </c>
+      <c r="E428" s="28" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="429" spans="3:6">
+      <c r="C429" s="1">
+        <f t="shared" si="0"/>
+        <v>41704</v>
+      </c>
+      <c r="D429">
+        <v>24</v>
+      </c>
+      <c r="E429" s="28"/>
+    </row>
+    <row r="430" spans="3:6">
+      <c r="C430" s="1">
+        <f t="shared" si="0"/>
+        <v>41705</v>
+      </c>
+      <c r="D430">
+        <v>24</v>
+      </c>
+      <c r="E430" s="28"/>
+    </row>
+    <row r="431" spans="3:6">
+      <c r="C431" s="1">
+        <f t="shared" si="0"/>
+        <v>41706</v>
+      </c>
+      <c r="D431">
+        <v>24</v>
+      </c>
+      <c r="E431" s="28"/>
+    </row>
+    <row r="432" spans="3:6">
+      <c r="C432" s="1">
+        <f t="shared" si="0"/>
+        <v>41707</v>
+      </c>
+      <c r="D432">
+        <v>24</v>
+      </c>
+      <c r="E432" s="28"/>
+    </row>
+    <row r="433" spans="3:6">
+      <c r="C433" s="1">
+        <f t="shared" si="0"/>
+        <v>41708</v>
+      </c>
+      <c r="D433">
+        <v>24</v>
+      </c>
+      <c r="E433" s="28"/>
+    </row>
+    <row r="434" spans="3:6">
+      <c r="C434" s="1">
+        <f t="shared" si="0"/>
+        <v>41709</v>
+      </c>
+      <c r="D434">
+        <v>24</v>
+      </c>
+      <c r="E434" s="28"/>
+    </row>
+    <row r="435" spans="3:6">
+      <c r="C435" s="1">
+        <f t="shared" si="0"/>
+        <v>41710</v>
+      </c>
+      <c r="D435">
+        <v>24</v>
+      </c>
+      <c r="E435" s="28"/>
+    </row>
+    <row r="436" spans="3:6">
+      <c r="C436" s="1">
+        <f t="shared" si="0"/>
+        <v>41711</v>
+      </c>
+      <c r="D436">
+        <v>24</v>
+      </c>
+      <c r="E436" s="28"/>
+    </row>
+    <row r="437" spans="3:6">
+      <c r="C437" s="1">
+        <f t="shared" si="0"/>
+        <v>41712</v>
+      </c>
+      <c r="D437">
+        <v>24</v>
+      </c>
+      <c r="E437" s="28"/>
+    </row>
+    <row r="438" spans="3:6">
+      <c r="C438" s="1">
+        <f t="shared" si="0"/>
+        <v>41713</v>
+      </c>
+      <c r="D438">
+        <v>24</v>
+      </c>
+      <c r="E438" s="28"/>
+    </row>
+    <row r="439" spans="3:6">
+      <c r="C439" s="1">
+        <f t="shared" si="0"/>
+        <v>41714</v>
+      </c>
+      <c r="D439">
+        <v>24</v>
+      </c>
+      <c r="E439" s="28"/>
+    </row>
+    <row r="440" spans="3:6">
+      <c r="C440" s="1">
+        <f t="shared" si="0"/>
+        <v>41715</v>
+      </c>
+      <c r="D440">
+        <v>24</v>
+      </c>
+      <c r="E440" s="28"/>
+    </row>
+    <row r="441" spans="3:6">
+      <c r="C441" s="1">
+        <f t="shared" si="0"/>
+        <v>41716</v>
+      </c>
+      <c r="D441">
+        <v>24</v>
+      </c>
+      <c r="E441" s="28"/>
+    </row>
+    <row r="442" spans="3:6">
+      <c r="C442" s="1">
+        <f t="shared" si="0"/>
+        <v>41717</v>
+      </c>
+      <c r="D442">
+        <v>24</v>
+      </c>
+      <c r="E442" s="28"/>
+    </row>
+    <row r="443" spans="3:6">
+      <c r="C443" s="1">
+        <f t="shared" si="0"/>
+        <v>41718</v>
+      </c>
+      <c r="D443">
+        <v>24</v>
+      </c>
+      <c r="E443" s="28"/>
+    </row>
+    <row r="444" spans="3:6">
+      <c r="C444" s="1">
+        <f t="shared" si="0"/>
+        <v>41719</v>
+      </c>
+      <c r="D444">
+        <v>24</v>
+      </c>
+      <c r="E444" s="28"/>
+    </row>
+    <row r="445" spans="3:6">
+      <c r="C445" s="1">
+        <f t="shared" si="0"/>
+        <v>41720</v>
+      </c>
+      <c r="D445">
+        <v>24</v>
+      </c>
+      <c r="E445" s="28"/>
+    </row>
+    <row r="446" spans="3:6">
+      <c r="C446" s="1">
+        <f t="shared" si="0"/>
+        <v>41721</v>
+      </c>
+      <c r="D446">
+        <v>24</v>
+      </c>
+      <c r="E446" s="28"/>
+      <c r="F446" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="447" spans="3:6">
+      <c r="C447" s="1">
+        <f>C446+1</f>
+        <v>41722</v>
+      </c>
+      <c r="D447">
+        <v>25</v>
+      </c>
+      <c r="E447" s="29"/>
+      <c r="F447">
+        <f>WEEKDAY(C447,2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="448" spans="3:6">
+      <c r="C448" s="1">
+        <f t="shared" ref="C448:C475" si="1">C447+1</f>
+        <v>41723</v>
+      </c>
+      <c r="D448">
+        <v>25</v>
+      </c>
+      <c r="E448" s="29"/>
+      <c r="F448">
+        <f t="shared" ref="F448:F467" si="2">WEEKDAY(C448,2)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="449" spans="3:6">
+      <c r="C449" s="1">
+        <f t="shared" si="1"/>
+        <v>41724</v>
+      </c>
+      <c r="D449">
+        <v>25</v>
+      </c>
+      <c r="E449" s="29"/>
+      <c r="F449">
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
+    </row>
+    <row r="450" spans="3:6">
+      <c r="C450" s="1">
+        <f t="shared" si="1"/>
+        <v>41725</v>
+      </c>
+      <c r="D450">
+        <v>25</v>
+      </c>
+      <c r="E450" s="29"/>
+      <c r="F450">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="451" spans="3:6">
+      <c r="C451" s="1">
+        <f t="shared" si="1"/>
+        <v>41726</v>
+      </c>
+      <c r="D451">
+        <v>25</v>
+      </c>
+      <c r="E451" s="29"/>
+      <c r="F451">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="452" spans="3:6">
+      <c r="C452" s="1">
+        <f t="shared" si="1"/>
+        <v>41727</v>
+      </c>
+      <c r="D452">
+        <v>25</v>
+      </c>
+      <c r="E452" s="29"/>
+      <c r="F452">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="453" spans="3:6">
+      <c r="C453" s="1">
+        <f t="shared" si="1"/>
+        <v>41728</v>
+      </c>
+      <c r="D453">
+        <v>25</v>
+      </c>
+      <c r="E453" s="29"/>
+      <c r="F453">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="454" spans="3:6">
+      <c r="C454" s="1">
+        <f t="shared" si="1"/>
+        <v>41729</v>
+      </c>
+      <c r="D454">
+        <v>25</v>
+      </c>
+      <c r="E454" s="29"/>
+      <c r="F454">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="455" spans="3:6">
+      <c r="C455" s="1">
+        <f t="shared" si="1"/>
+        <v>41730</v>
+      </c>
+      <c r="D455">
+        <v>25</v>
+      </c>
+      <c r="E455" s="29"/>
+      <c r="F455">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="456" spans="3:6">
+      <c r="C456" s="1">
+        <f t="shared" si="1"/>
+        <v>41731</v>
+      </c>
+      <c r="D456">
+        <v>25</v>
+      </c>
+      <c r="E456" s="29"/>
+      <c r="F456">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="457" spans="3:6">
+      <c r="C457" s="1">
+        <f t="shared" si="1"/>
+        <v>41732</v>
+      </c>
+      <c r="D457">
+        <v>25</v>
+      </c>
+      <c r="E457" s="29"/>
+      <c r="F457">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="458" spans="3:6">
+      <c r="C458" s="1">
+        <f t="shared" si="1"/>
+        <v>41733</v>
+      </c>
+      <c r="D458">
+        <v>25</v>
+      </c>
+      <c r="E458" s="29"/>
+      <c r="F458">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="459" spans="3:6">
+      <c r="C459" s="1">
+        <f t="shared" si="1"/>
+        <v>41734</v>
+      </c>
+      <c r="D459">
+        <v>25</v>
+      </c>
+      <c r="E459" s="29"/>
+      <c r="F459">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="460" spans="3:6">
+      <c r="C460" s="1">
+        <f t="shared" si="1"/>
+        <v>41735</v>
+      </c>
+      <c r="D460">
+        <v>25</v>
+      </c>
+      <c r="E460" s="29"/>
+      <c r="F460">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="461" spans="3:6">
+      <c r="C461" s="1">
+        <f t="shared" si="1"/>
+        <v>41736</v>
+      </c>
+      <c r="D461">
+        <v>25</v>
+      </c>
+      <c r="E461" s="29"/>
+      <c r="F461">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="462" spans="3:6">
+      <c r="C462" s="1">
+        <f t="shared" si="1"/>
+        <v>41737</v>
+      </c>
+      <c r="D462">
+        <v>25</v>
+      </c>
+      <c r="E462" s="29"/>
+      <c r="F462">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="463" spans="3:6">
+      <c r="C463" s="1">
+        <f t="shared" si="1"/>
+        <v>41738</v>
+      </c>
+      <c r="D463">
+        <v>25</v>
+      </c>
+      <c r="E463" s="29"/>
+      <c r="F463">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="464" spans="3:6">
+      <c r="C464" s="1">
+        <f t="shared" si="1"/>
+        <v>41739</v>
+      </c>
+      <c r="D464">
+        <v>25</v>
+      </c>
+      <c r="E464" s="29"/>
+      <c r="F464">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="465" spans="3:6">
+      <c r="C465" s="1">
+        <f t="shared" si="1"/>
+        <v>41740</v>
+      </c>
+      <c r="D465">
+        <v>25</v>
+      </c>
+      <c r="E465" s="29"/>
+      <c r="F465">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="466" spans="3:6">
+      <c r="C466" s="1">
+        <f t="shared" si="1"/>
+        <v>41741</v>
+      </c>
+      <c r="D466">
+        <v>25</v>
+      </c>
+      <c r="E466" s="29"/>
+      <c r="F466">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="467" spans="3:6">
+      <c r="C467" s="1">
+        <f t="shared" si="1"/>
+        <v>41742</v>
+      </c>
+      <c r="D467">
+        <v>25</v>
+      </c>
+      <c r="E467" s="29"/>
+      <c r="F467">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="468" spans="3:6">
+      <c r="C468" s="1"/>
+    </row>
+    <row r="469" spans="3:6">
+      <c r="C469" s="1"/>
+    </row>
+    <row r="470" spans="3:6">
+      <c r="C470" s="1"/>
+    </row>
+    <row r="471" spans="3:6">
+      <c r="C471" s="1"/>
+    </row>
+    <row r="472" spans="3:6">
+      <c r="C472" s="1"/>
+    </row>
+    <row r="473" spans="3:6">
+      <c r="C473" s="1"/>
+    </row>
+    <row r="474" spans="3:6">
+      <c r="C474" s="1"/>
+    </row>
+    <row r="475" spans="3:6">
+      <c r="C475" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -47602,9 +48128,6 @@
   <phoneticPr fontId="26" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
-  <tableParts count="1">
-    <tablePart r:id="rId2"/>
-  </tableParts>
 </worksheet>
 </file>
 
@@ -51951,15 +52474,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100EF5396E5AC836A4A9A6CB1BB1B648CB3" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="4b05064ef68d5866fdda9a4af21a7c31">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1fe5ebd6-dc4e-444c-b615-1b2eb36ecb43" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="907af5894e6417045619ca437e5cb976" ns2:_="">
     <xsd:import namespace="1fe5ebd6-dc4e-444c-b615-1b2eb36ecb43"/>
@@ -52105,6 +52619,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -52116,14 +52639,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{546D883D-E605-4113-BC58-249223355278}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{049DA028-9E41-4E4D-99E6-0E6DE1D992F5}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -52137,6 +52652,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{546D883D-E605-4113-BC58-249223355278}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
